--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SuperPower\Schematics\SuperPower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B72A3A5-C11F-4F0C-91C2-73CC689B0FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903F6723-2CC2-4A79-A343-FA264A35EF2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{E1D7E66A-D3E6-469F-BDF7-D7109E6015CA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t xml:space="preserve">Comment </t>
   </si>
@@ -277,6 +277,18 @@
   </si>
   <si>
     <t>1727-4924-1-ND</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>2073-USB4105-GF-ACT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	C136423</t>
+  </si>
+  <si>
+    <t>USB TYPE-C USB 2.0</t>
   </si>
 </sst>
 </file>
@@ -662,19 +674,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5593C5F-CF12-467A-BBA3-6003AEA164AA}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.3671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.05078125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
@@ -1014,6 +1026,20 @@
         <v>83</v>
       </c>
     </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="150" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SuperPower\Schematics\SuperPower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903F6723-2CC2-4A79-A343-FA264A35EF2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201D0923-97CC-45C3-921C-06571BF53648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{E1D7E66A-D3E6-469F-BDF7-D7109E6015CA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t xml:space="preserve">Comment </t>
   </si>
@@ -279,16 +279,74 @@
     <t>1727-4924-1-ND</t>
   </si>
   <si>
-    <t>J1</t>
-  </si>
-  <si>
     <t>2073-USB4105-GF-ACT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">	C136423</t>
-  </si>
-  <si>
     <t>USB TYPE-C USB 2.0</t>
+  </si>
+  <si>
+    <t>J4, J9</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>2 PIN</t>
+  </si>
+  <si>
+    <t>10 PIN</t>
+  </si>
+  <si>
+    <t>3 PIN</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Connector Header Through Hole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+455-2247-ND</t>
+  </si>
+  <si>
+    <t>C158012</t>
+  </si>
+  <si>
+    <t>WM50014-02-ND</t>
+  </si>
+  <si>
+    <t>C234182</t>
+  </si>
+  <si>
+    <t>5-146280-3-ND</t>
+  </si>
+  <si>
+    <t>C429954</t>
+  </si>
+  <si>
+    <t>C124372</t>
+  </si>
+  <si>
+    <t>Pin Header 2</t>
+  </si>
+  <si>
+    <t>Pin Header 10</t>
+  </si>
+  <si>
+    <t>Pin Header 3</t>
+  </si>
+  <si>
+    <t>A128921-ND</t>
+  </si>
+  <si>
+    <t>C136423</t>
+  </si>
+  <si>
+    <t>J6</t>
   </si>
 </sst>
 </file>
@@ -352,13 +410,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5593C5F-CF12-467A-BBA3-6003AEA164AA}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1028,16 +1089,84 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>85</v>
+      <c r="C27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8">
+      <c r="A29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
